--- a/etc.xlsx
+++ b/etc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/pangpang/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{32113218-6AAF-5F4B-B5BD-10A0A4AD603E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ED2CEF44-2670-4046-B24B-BBF4636C21A5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1974,7 +1974,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z31" sqref="Z31"/>
+      <selection activeCell="AR24" sqref="AR24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="15"/>

--- a/etc.xlsx
+++ b/etc.xlsx
@@ -1,27 +1,512 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/pangpang/limingxie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\blog\limingxie-blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ED2CEF44-2670-4046-B24B-BBF4636C21A5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B1C9DC-DFC5-4E0B-8B0C-1AE22FB77D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="40" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="41" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="27">
+  <si>
+    <t>学生</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z12301</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z12302</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小明</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小张</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>小李</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z12303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… … </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>语文</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z12303</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a.编号, a.姓名, a.性别, b.科目, b.分数</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 学生 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INNER JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 成绩 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a.编号 = b.编号</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LEFT JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 成绩 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a.编号 = b.编号</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RIGHT JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 成绩 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a.编号 = b.编号</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FULL OUTER JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 成绩 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a.编号 = b.编号</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,21 +551,75 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -101,9 +640,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -427,8 +993,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7150100" y="3225800"/>
-          <a:ext cx="1873469" cy="1581496"/>
+          <a:off x="6357620" y="2981960"/>
+          <a:ext cx="1675349" cy="1444336"/>
           <a:chOff x="1054100" y="5486400"/>
           <a:chExt cx="1873469" cy="1581496"/>
         </a:xfrm>
@@ -546,8 +1112,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5397500" y="2882900"/>
-          <a:ext cx="1873469" cy="1581496"/>
+          <a:off x="4803140" y="2654300"/>
+          <a:ext cx="1675349" cy="1459576"/>
           <a:chOff x="2819400" y="6451600"/>
           <a:chExt cx="1873469" cy="1581496"/>
         </a:xfrm>
@@ -566,7 +1132,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -665,8 +1231,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1625600" y="2870200"/>
-          <a:ext cx="1873469" cy="1581496"/>
+          <a:off x="1460500" y="2641600"/>
+          <a:ext cx="1644869" cy="1459576"/>
           <a:chOff x="2819400" y="6451600"/>
           <a:chExt cx="1873469" cy="1581496"/>
         </a:xfrm>
@@ -685,7 +1251,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -784,8 +1350,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3556000" y="3213100"/>
-          <a:ext cx="1873469" cy="1581496"/>
+          <a:off x="3159760" y="2969260"/>
+          <a:ext cx="1675349" cy="1444336"/>
           <a:chOff x="1054100" y="5486400"/>
           <a:chExt cx="1873469" cy="1581496"/>
         </a:xfrm>
@@ -1689,6 +2255,507 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>363855</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="箭头: 右 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E44D563A-FE4A-4638-820B-19C5056628AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6050280" y="1259205"/>
+          <a:ext cx="493395" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 46154"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形: 圆角 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC0958A-78E7-4D11-BDB2-A6F693500F03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="411480" y="502920"/>
+          <a:ext cx="5349240" cy="1988820"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4062"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>363855</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="箭头: 右 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25034073-EF7B-4AFD-8258-42162300AEE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6050280" y="1259205"/>
+          <a:ext cx="493395" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 46154"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形: 圆角 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DD094F9-C5A2-4D62-A54C-2BCA93CE08BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="411480" y="502920"/>
+          <a:ext cx="5349240" cy="1988820"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4062"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>363855</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="箭头: 右 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91885058-A02C-471D-9B68-C8D233318139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6050280" y="1259205"/>
+          <a:ext cx="493395" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 46154"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形: 圆角 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC0E589-1FEB-4EC6-8CFA-E9EC6D4BDB50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="411480" y="502920"/>
+          <a:ext cx="5349240" cy="1988820"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4062"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>363855</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="箭头: 右 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{452C7B76-D7FA-4811-8C1A-7651DCBF2A19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6050280" y="1259205"/>
+          <a:ext cx="493395" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 46154"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形: 圆角 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C42EF6-24D3-4E07-8E2E-F097D4EAB8A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="411480" y="502920"/>
+          <a:ext cx="5349240" cy="1988820"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4062"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -1973,11 +3040,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D7D092-CB5D-6748-995C-7ECD6A630F3D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="AR24" sqref="AR24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="13.8"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1985,17 +3052,1174 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE40C53E-8169-40FE-8210-70A41C856B1B}">
+  <dimension ref="B5:S62"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AA50" sqref="AA50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:19">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4">
+        <v>40485</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3">
+        <v>90</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="L7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="3">
+        <v>90</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4">
+        <v>40261</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3">
+        <v>88</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="L8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="3">
+        <v>88</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4">
+        <v>40310</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3">
+        <v>99</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="L9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3">
+        <v>85</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="L10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="3">
+        <v>70</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="L11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="G12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="3">
+        <v>66</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="L12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19">
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="L13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19">
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19">
+      <c r="B24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19">
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="4">
+        <v>40485</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="3">
+        <v>90</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="L25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P25" s="3">
+        <v>90</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19">
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="4">
+        <v>40261</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="3">
+        <v>88</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="L26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P26" s="3">
+        <v>88</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19">
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="4">
+        <v>40310</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="3">
+        <v>99</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="L27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19">
+      <c r="B28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="3">
+        <v>70</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="L28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19">
+      <c r="G29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="3">
+        <v>66</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="L29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P29" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19">
+      <c r="G30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="L30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P30" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19">
+      <c r="J31" s="6"/>
+      <c r="L31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19">
+      <c r="B39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19">
+      <c r="B40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19">
+      <c r="B41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="4">
+        <v>40485</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="3">
+        <v>90</v>
+      </c>
+      <c r="J41" s="7"/>
+      <c r="L41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P41" s="3">
+        <v>90</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19">
+      <c r="B42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="4">
+        <v>40310</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="3">
+        <v>88</v>
+      </c>
+      <c r="J42" s="7"/>
+      <c r="L42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P42" s="3">
+        <v>88</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19">
+      <c r="B43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="3">
+        <v>99</v>
+      </c>
+      <c r="J43" s="7"/>
+      <c r="L43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P43" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19">
+      <c r="G44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="3">
+        <v>85</v>
+      </c>
+      <c r="J44" s="7"/>
+      <c r="L44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P44" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19">
+      <c r="G45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="3">
+        <v>70</v>
+      </c>
+      <c r="J45" s="7"/>
+      <c r="L45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P45" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19">
+      <c r="G46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="3">
+        <v>66</v>
+      </c>
+      <c r="J46" s="7"/>
+      <c r="L46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P46" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19">
+      <c r="G47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" s="6"/>
+      <c r="L47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19">
+      <c r="B54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19">
+      <c r="B55" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P55" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19">
+      <c r="B56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="4">
+        <v>40485</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="3">
+        <v>90</v>
+      </c>
+      <c r="J56" s="7"/>
+      <c r="L56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P56" s="3">
+        <v>90</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19">
+      <c r="B57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="4">
+        <v>40261</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="3">
+        <v>88</v>
+      </c>
+      <c r="J57" s="7"/>
+      <c r="L57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P57" s="3">
+        <v>88</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19">
+      <c r="B58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="3">
+        <v>85</v>
+      </c>
+      <c r="J58" s="7"/>
+      <c r="L58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O58" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P58" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19">
+      <c r="G59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="3">
+        <v>70</v>
+      </c>
+      <c r="J59" s="7"/>
+      <c r="L59" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P59" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19">
+      <c r="G60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="3">
+        <v>66</v>
+      </c>
+      <c r="J60" s="7"/>
+      <c r="L60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P60" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19">
+      <c r="G61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" s="7"/>
+      <c r="L61" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P61" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19">
+      <c r="J62" s="6"/>
+      <c r="L62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -2003,29 +4227,18 @@
 </settings>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2034,6 +4247,33 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -2042,35 +4282,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/etc.xlsx
+++ b/etc.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10513"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\blog\limingxie-blog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B1C9DC-DFC5-4E0B-8B0C-1AE22FB77D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{66AAA43A-8C5D-7547-9C86-1F058E860DDA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="500" windowWidth="30940" windowHeight="16780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="40" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="41" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="42" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="38">
   <si>
     <t>学生</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -119,6 +120,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -144,6 +146,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -166,6 +169,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -191,6 +195,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -213,6 +218,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -247,6 +253,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -276,6 +283,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -298,6 +306,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -332,6 +341,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -357,6 +367,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -379,6 +390,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -413,6 +425,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -438,6 +451,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -460,6 +474,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -494,6 +509,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -501,12 +517,67 @@
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>隔离级别</t>
+    <rPh sb="0" eb="2">
+      <t>ge'li'ji'bi</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>脏读可能性</t>
+    <rPh sb="0" eb="2">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可重复读可能性</t>
+    <rPh sb="0" eb="2">
+      <t>bu'ken</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻读可能性</t>
+    <rPh sb="0" eb="2">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>加锁读</t>
+    <rPh sb="0" eb="2">
+      <t>jia'su</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>READ UNCOMMITTED</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>READ COMMITTED</t>
+  </si>
+  <si>
+    <t>REPEATABLE READ</t>
+  </si>
+  <si>
+    <t>SERIALIZABLE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,6 +655,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -640,7 +726,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -670,6 +756,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -993,8 +1085,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6357620" y="2981960"/>
-          <a:ext cx="1675349" cy="1444336"/>
+          <a:off x="7150100" y="3225800"/>
+          <a:ext cx="1873469" cy="1581496"/>
           <a:chOff x="1054100" y="5486400"/>
           <a:chExt cx="1873469" cy="1581496"/>
         </a:xfrm>
@@ -1112,8 +1204,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4803140" y="2654300"/>
-          <a:ext cx="1675349" cy="1459576"/>
+          <a:off x="5397500" y="2882900"/>
+          <a:ext cx="1873469" cy="1581496"/>
           <a:chOff x="2819400" y="6451600"/>
           <a:chExt cx="1873469" cy="1581496"/>
         </a:xfrm>
@@ -1231,8 +1323,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1460500" y="2641600"/>
-          <a:ext cx="1644869" cy="1459576"/>
+          <a:off x="1625600" y="2870200"/>
+          <a:ext cx="1873469" cy="1581496"/>
           <a:chOff x="2819400" y="6451600"/>
           <a:chExt cx="1873469" cy="1581496"/>
         </a:xfrm>
@@ -1350,8 +1442,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3159760" y="2969260"/>
-          <a:ext cx="1675349" cy="1444336"/>
+          <a:off x="3556000" y="3213100"/>
+          <a:ext cx="1873469" cy="1581496"/>
           <a:chOff x="1054100" y="5486400"/>
           <a:chExt cx="1873469" cy="1581496"/>
         </a:xfrm>
@@ -3041,10 +3133,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AR24" sqref="AR24"/>
+      <selection activeCell="AV27" sqref="AV27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3056,13 +3148,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE40C53E-8169-40FE-8210-70A41C856B1B}">
   <dimension ref="B5:S62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="AA50" sqref="AA50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:19">
@@ -4195,6 +4287,110 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A153533-EC68-D34D-812B-7AD542C4A64B}">
+  <dimension ref="C9:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="3:7">
+      <c r="C9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4206,17 +4402,13 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4228,13 +4420,17 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4247,7 +4443,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4256,7 +4452,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4274,7 +4470,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4283,7 +4479,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/etc.xlsx
+++ b/etc.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{66AAA43A-8C5D-7547-9C86-1F058E860DDA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{30502239-5D49-2E48-8D81-8745810C2B19}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="500" windowWidth="30940" windowHeight="16780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="500" windowWidth="30940" windowHeight="16780" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="40" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="41" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="42" r:id="rId3"/>
+    <sheet name="vim" sheetId="43" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="148">
   <si>
     <t>学生</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -572,12 +573,370 @@
   <si>
     <t>SERIALIZABLE</t>
   </si>
+  <si>
+    <t>vi编辑器</t>
+  </si>
+  <si>
+    <t>vimtutor</t>
+  </si>
+  <si>
+    <t>hjkl:</t>
+  </si>
+  <si>
+    <t>左下上右  5j  =&gt; 往下5行</t>
+  </si>
+  <si>
+    <t>本行的开头</t>
+  </si>
+  <si>
+    <t>Shift + 6:</t>
+  </si>
+  <si>
+    <t>本行的非空格开头</t>
+  </si>
+  <si>
+    <t>Shift + 4:</t>
+  </si>
+  <si>
+    <t>本行的尾部</t>
+  </si>
+  <si>
+    <t>Shift + w(w):</t>
+  </si>
+  <si>
+    <t>下一个单词的开头</t>
+  </si>
+  <si>
+    <t>Shift + B(B):</t>
+  </si>
+  <si>
+    <t>上一个单词的开头</t>
+  </si>
+  <si>
+    <t>Ctrl + F(Page Down):</t>
+  </si>
+  <si>
+    <t>Ctrl + B(Page Up):</t>
+  </si>
+  <si>
+    <t>Number + Shift + G(G):</t>
+  </si>
+  <si>
+    <t>移动到 number行</t>
+  </si>
+  <si>
+    <t>Shift + G(G):</t>
+  </si>
+  <si>
+    <t>最后一行</t>
+  </si>
+  <si>
+    <t>U:</t>
+  </si>
+  <si>
+    <t>退回最后一个操作</t>
+  </si>
+  <si>
+    <t>O(o):</t>
+  </si>
+  <si>
+    <t>当前行上(下)方 插入一行 进入编辑模式</t>
+  </si>
+  <si>
+    <t>d:</t>
+  </si>
+  <si>
+    <t>X3     --删除当前符和后2个符</t>
+  </si>
+  <si>
+    <t>dd     --删除当前行</t>
+  </si>
+  <si>
+    <t>5dd   --当前行和后4行</t>
+  </si>
+  <si>
+    <t>dw    --当前字符到下一个单词的起始</t>
+  </si>
+  <si>
+    <t>d$     --当前字符到当前行的尾末</t>
+  </si>
+  <si>
+    <t>d0     --当前字符到当前行的起始字符</t>
+  </si>
+  <si>
+    <t>d^     --当前字符到当前行下一个非空字符</t>
+  </si>
+  <si>
+    <t>dG     --当前行到文件尾末</t>
+  </si>
+  <si>
+    <t>d20G --当前行到文件20行</t>
+  </si>
+  <si>
+    <t>y:</t>
+  </si>
+  <si>
+    <t>yy      --复制当前行</t>
+  </si>
+  <si>
+    <t>5yy    --当前行和后4行</t>
+  </si>
+  <si>
+    <t>yW     --当前字符到下一个单词的其实</t>
+  </si>
+  <si>
+    <t>y$      --当前字符到当前行的尾末</t>
+  </si>
+  <si>
+    <t>y0      --当前字符到当前行的起始字符</t>
+  </si>
+  <si>
+    <t>y^      --当前字符到当前行下一个非空字符</t>
+  </si>
+  <si>
+    <t>yG      --当前行到文件尾末</t>
+  </si>
+  <si>
+    <t>y20G  --当前行到文件20行</t>
+  </si>
+  <si>
+    <t>P(p):</t>
+  </si>
+  <si>
+    <t>粘贴复制的内容上方(下方)</t>
+  </si>
+  <si>
+    <t>J:</t>
+  </si>
+  <si>
+    <t>下行合并到当前行</t>
+  </si>
+  <si>
+    <t>f:</t>
+  </si>
+  <si>
+    <t>行内搜索  fa  搜索a</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>:/ 全文搜索 输入n 查找下一个</t>
+  </si>
+  <si>
+    <t>:/%s/Line/line/g   Line 替换成line</t>
+  </si>
+  <si>
+    <t>:/%s/Line/line/gc  每次替换需确认 y 执行 n 跳 a 之后所有替换</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数字+shift+g </t>
+  </si>
+  <si>
+    <t xml:space="preserve">i </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前光标前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">复制一段(从第几行到第几行) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前光标后</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">箭头移动到目的行粘贴 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">o </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前光标行的下一行 I 光标所在行最前</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>撤销上一步</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>光标所在行最后</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">删除光标当前行 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O </t>
+  </si>
+  <si>
+    <t xml:space="preserve">当前光标行的上一行 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">删除光标(含)后多少行 </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>:w</t>
+  </si>
+  <si>
+    <t>保存</t>
+  </si>
+  <si>
+    <t>yw</t>
+  </si>
+  <si>
+    <t>复制一个词</t>
+  </si>
+  <si>
+    <t>:q</t>
+  </si>
+  <si>
+    <t>退出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dw </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除一个词</t>
+  </si>
+  <si>
+    <t>:!</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制执行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shift+6(^) </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动到行头</t>
+  </si>
+  <si>
+    <t>n 查找下一个，N 往上查找</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">shift+4 ($) </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动到行尾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:noh </t>
+  </si>
+  <si>
+    <t>取消高亮显示</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1+shift+g </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动到页头，数字</t>
+  </si>
+  <si>
+    <t>:set nu</t>
+  </si>
+  <si>
+    <t>显示行号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shift+g </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动到页尾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:set nonu </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭行号</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">移动到目标行 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">:%s/old/new/g </t>
+  </si>
+  <si>
+    <t>替换内容 /g替换匹配到的所有内容</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般模式</t>
+    <rPh sb="0" eb="2">
+      <t>yi'ban'mo'sh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑模式</t>
+    <rPh sb="0" eb="2">
+      <t>bian'ji'mo'sh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令模式</t>
+    <rPh sb="0" eb="2">
+      <t>zhi'lin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y 数字 y</t>
+  </si>
+  <si>
+    <t>d 数字 d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">剪切一个字母，相当于 del </t>
+  </si>
+  <si>
+    <t xml:space="preserve">剪切一个字母，相当于 Backspace </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/要查找的词 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -670,8 +1029,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体-简 常规体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体-简 常规体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -681,6 +1060,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,7 +1117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -762,6 +1153,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4294,8 +4709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A153533-EC68-D34D-812B-7AD542C4A64B}">
   <dimension ref="C9:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4394,11 +4809,534 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98FAA08-5897-AE4A-91D0-71038AC59959}">
+  <dimension ref="B3:I61"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="9" max="9" width="41.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="13"/>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="13"/>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="13"/>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="13"/>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="13"/>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="13"/>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="13"/>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="13"/>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="13"/>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="13"/>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="13"/>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="13"/>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="13"/>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="13"/>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="13"/>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="13"/>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="13"/>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+    </row>
+    <row r="46" spans="2:9" ht="22">
+      <c r="E46" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="I46" s="15"/>
+    </row>
+    <row r="47" spans="2:9" ht="22">
+      <c r="E47" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G47" s="15"/>
+      <c r="H47" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="22">
+      <c r="E48" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" s="15"/>
+      <c r="H48" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" ht="22">
+      <c r="E49" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49" s="15"/>
+      <c r="H49" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9" ht="22">
+      <c r="E50" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50" s="15"/>
+      <c r="H50" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9" ht="22">
+      <c r="E51" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" s="15"/>
+      <c r="H51" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9" ht="22">
+      <c r="E52" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+    </row>
+    <row r="53" spans="5:9" ht="22">
+      <c r="E53" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G53" s="15"/>
+      <c r="H53" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54" spans="5:9" ht="22">
+      <c r="E54" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G54" s="15"/>
+      <c r="H54" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9" ht="22">
+      <c r="E55" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G55" s="15"/>
+      <c r="H55" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9" ht="22">
+      <c r="E56" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G56" s="15"/>
+      <c r="H56" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9" ht="22">
+      <c r="E57" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G57" s="15"/>
+      <c r="H57" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="5:9" ht="22">
+      <c r="E58" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G58" s="15"/>
+      <c r="H58" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="5:9" ht="22">
+      <c r="E59" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G59" s="15"/>
+      <c r="H59" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="5:9" ht="22">
+      <c r="E60" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G60" s="15"/>
+      <c r="H60" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="5:9" ht="22">
+      <c r="E61" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G61" s="15"/>
+      <c r="H61" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="B27:B34"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4406,17 +5344,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4427,14 +5365,15 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4452,7 +5391,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4461,7 +5400,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4479,7 +5418,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/etc.xlsx
+++ b/etc.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{30502239-5D49-2E48-8D81-8745810C2B19}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{53EBA11A-9399-FB44-9D9B-82AE4164CE12}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="500" windowWidth="30940" windowHeight="16780" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="500" windowWidth="30940" windowHeight="16780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="40" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="41" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="42" r:id="rId3"/>
-    <sheet name="vim" sheetId="43" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="44" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="41" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="42" r:id="rId4"/>
+    <sheet name="vim" sheetId="43" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="152">
   <si>
     <t>学生</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -930,6 +931,22 @@
   <si>
     <t xml:space="preserve">/要查找的词 </t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>行(Ro'w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列(col)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值(val)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> =&gt;表示大小和默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1050,7 +1067,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1072,6 +1089,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,7 +1146,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1157,9 +1186,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1177,6 +1203,24 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3560,6 +3604,289 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5321674-89F3-614C-91AB-0F0B05688BD9}">
+  <dimension ref="F6:V15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6" spans="6:22">
+      <c r="P6" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="T6" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="6:22" ht="22" customHeight="1">
+      <c r="F8" s="20">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20">
+        <v>0</v>
+      </c>
+      <c r="M8" s="20">
+        <v>0</v>
+      </c>
+      <c r="P8" s="24">
+        <v>8</v>
+      </c>
+      <c r="R8">
+        <v>8</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="V8" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="6:22" ht="22" customHeight="1">
+      <c r="F9" s="20">
+        <v>0</v>
+      </c>
+      <c r="G9" s="22">
+        <v>1</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20">
+        <v>0</v>
+      </c>
+      <c r="K9" s="20">
+        <v>0</v>
+      </c>
+      <c r="L9" s="20">
+        <v>0</v>
+      </c>
+      <c r="M9" s="20">
+        <v>0</v>
+      </c>
+      <c r="P9" s="24">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="6:22" ht="22" customHeight="1">
+      <c r="F10" s="20">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0</v>
+      </c>
+      <c r="H10" s="21">
+        <v>2</v>
+      </c>
+      <c r="I10" s="20">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20">
+        <v>0</v>
+      </c>
+      <c r="K10" s="20">
+        <v>0</v>
+      </c>
+      <c r="L10" s="20">
+        <v>0</v>
+      </c>
+      <c r="M10" s="20">
+        <v>0</v>
+      </c>
+      <c r="P10" s="24">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="6:22" ht="22" customHeight="1">
+      <c r="F11" s="20">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0</v>
+      </c>
+      <c r="H11" s="20">
+        <v>0</v>
+      </c>
+      <c r="I11" s="22">
+        <v>1</v>
+      </c>
+      <c r="J11" s="20">
+        <v>0</v>
+      </c>
+      <c r="K11" s="20">
+        <v>0</v>
+      </c>
+      <c r="L11" s="20">
+        <v>0</v>
+      </c>
+      <c r="M11" s="20">
+        <v>0</v>
+      </c>
+      <c r="P11" s="24">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="6:22" ht="22" customHeight="1">
+      <c r="F12" s="20">
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
+        <v>0</v>
+      </c>
+      <c r="I12" s="20">
+        <v>0</v>
+      </c>
+      <c r="J12" s="21">
+        <v>2</v>
+      </c>
+      <c r="K12" s="20">
+        <v>0</v>
+      </c>
+      <c r="L12" s="20">
+        <v>0</v>
+      </c>
+      <c r="M12" s="20">
+        <v>0</v>
+      </c>
+      <c r="P12" s="24">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="6:22" ht="22" customHeight="1">
+      <c r="F13" s="20">
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0</v>
+      </c>
+      <c r="H13" s="20">
+        <v>0</v>
+      </c>
+      <c r="I13" s="20">
+        <v>0</v>
+      </c>
+      <c r="J13" s="20">
+        <v>0</v>
+      </c>
+      <c r="K13" s="20">
+        <v>0</v>
+      </c>
+      <c r="L13" s="20">
+        <v>0</v>
+      </c>
+      <c r="M13" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="6:22" ht="22" customHeight="1">
+      <c r="F14" s="20">
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0</v>
+      </c>
+      <c r="H14" s="20">
+        <v>0</v>
+      </c>
+      <c r="I14" s="20">
+        <v>0</v>
+      </c>
+      <c r="J14" s="20">
+        <v>0</v>
+      </c>
+      <c r="K14" s="20">
+        <v>0</v>
+      </c>
+      <c r="L14" s="20">
+        <v>0</v>
+      </c>
+      <c r="M14" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="6:22" ht="22" customHeight="1">
+      <c r="F15" s="20">
+        <v>0</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0</v>
+      </c>
+      <c r="H15" s="20">
+        <v>0</v>
+      </c>
+      <c r="I15" s="20">
+        <v>0</v>
+      </c>
+      <c r="J15" s="20">
+        <v>0</v>
+      </c>
+      <c r="K15" s="20">
+        <v>0</v>
+      </c>
+      <c r="L15" s="20">
+        <v>0</v>
+      </c>
+      <c r="M15" s="20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE40C53E-8169-40FE-8210-70A41C856B1B}">
   <dimension ref="B5:S62"/>
   <sheetViews>
@@ -4705,7 +5032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A153533-EC68-D34D-812B-7AD542C4A64B}">
   <dimension ref="C9:G13"/>
   <sheetViews>
@@ -4809,11 +5136,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98FAA08-5897-AE4A-91D0-71038AC59959}">
   <dimension ref="B3:I61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A30" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
@@ -4883,24 +5210,24 @@
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="19"/>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="19"/>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
@@ -4935,7 +5262,7 @@
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="19" t="s">
         <v>61</v>
       </c>
       <c r="C18" t="s">
@@ -4943,55 +5270,55 @@
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="13"/>
+      <c r="B19" s="19"/>
       <c r="C19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="13"/>
+      <c r="B20" s="19"/>
       <c r="C20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="13"/>
+      <c r="B21" s="19"/>
       <c r="C21" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="13"/>
+      <c r="B22" s="19"/>
       <c r="C22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="13"/>
+      <c r="B23" s="19"/>
       <c r="C23" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="13"/>
+      <c r="B24" s="19"/>
       <c r="C24" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="13"/>
+      <c r="B25" s="19"/>
       <c r="C25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="13"/>
+      <c r="B26" s="19"/>
       <c r="C26" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="19" t="s">
         <v>71</v>
       </c>
       <c r="C27" t="s">
@@ -4999,43 +5326,43 @@
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="13"/>
+      <c r="B28" s="19"/>
       <c r="C28" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="13"/>
+      <c r="B29" s="19"/>
       <c r="C29" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="13"/>
+      <c r="B30" s="19"/>
       <c r="C30" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="13"/>
+      <c r="B31" s="19"/>
       <c r="C31" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="13"/>
+      <c r="B32" s="19"/>
       <c r="C32" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="13"/>
+      <c r="B33" s="19"/>
       <c r="C33" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="13"/>
+      <c r="B34" s="19"/>
       <c r="C34" t="s">
         <v>79</v>
       </c>
@@ -5065,7 +5392,7 @@
       </c>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="19" t="s">
         <v>86</v>
       </c>
       <c r="C38" t="s">
@@ -5073,248 +5400,248 @@
       </c>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="13"/>
+      <c r="B39" s="19"/>
       <c r="C39" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="13"/>
+      <c r="B40" s="19"/>
       <c r="C40" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="45" spans="2:9">
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
     </row>
     <row r="46" spans="2:9" ht="22">
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="18" t="s">
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="I46" s="15"/>
+      <c r="I46" s="14"/>
     </row>
     <row r="47" spans="2:9" ht="22">
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G47" s="15"/>
-      <c r="H47" s="16" t="s">
+      <c r="G47" s="14"/>
+      <c r="H47" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="I47" s="16" t="s">
+      <c r="I47" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="22">
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G48" s="15"/>
-      <c r="H48" s="17" t="s">
+      <c r="G48" s="14"/>
+      <c r="H48" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="I48" s="16" t="s">
+      <c r="I48" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="49" spans="5:9" ht="22">
-      <c r="E49" s="17" t="s">
+      <c r="E49" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G49" s="15"/>
-      <c r="H49" s="17" t="s">
+      <c r="G49" s="14"/>
+      <c r="H49" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="I49" s="16" t="s">
+      <c r="I49" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="50" spans="5:9" ht="22">
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G50" s="15"/>
-      <c r="H50" s="17" t="s">
+      <c r="G50" s="14"/>
+      <c r="H50" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="I50" s="16" t="s">
+      <c r="I50" s="15" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="51" spans="5:9" ht="22">
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="G51" s="15"/>
-      <c r="H51" s="17" t="s">
+      <c r="G51" s="14"/>
+      <c r="H51" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="I51" s="16" t="s">
+      <c r="I51" s="15" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="52" spans="5:9" ht="22">
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
     </row>
     <row r="53" spans="5:9" ht="22">
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="G53" s="15"/>
-      <c r="H53" s="19" t="s">
+      <c r="G53" s="14"/>
+      <c r="H53" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="I53" s="15"/>
+      <c r="I53" s="14"/>
     </row>
     <row r="54" spans="5:9" ht="22">
-      <c r="E54" s="17" t="s">
+      <c r="E54" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F54" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="G54" s="15"/>
-      <c r="H54" s="17" t="s">
+      <c r="G54" s="14"/>
+      <c r="H54" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="I54" s="16" t="s">
+      <c r="I54" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="55" spans="5:9" ht="22">
-      <c r="E55" s="17" t="s">
+      <c r="E55" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="G55" s="15"/>
-      <c r="H55" s="17" t="s">
+      <c r="G55" s="14"/>
+      <c r="H55" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="I55" s="16" t="s">
+      <c r="I55" s="15" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="56" spans="5:9" ht="22">
-      <c r="E56" s="17" t="s">
+      <c r="E56" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F56" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="G56" s="15"/>
-      <c r="H56" s="17" t="s">
+      <c r="G56" s="14"/>
+      <c r="H56" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="I56" s="16" t="s">
+      <c r="I56" s="15" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="57" spans="5:9" ht="22">
-      <c r="E57" s="17" t="s">
+      <c r="E57" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="F57" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="G57" s="15"/>
-      <c r="H57" s="17" t="s">
+      <c r="G57" s="14"/>
+      <c r="H57" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="I57" s="16" t="s">
+      <c r="I57" s="15" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="58" spans="5:9" ht="22">
-      <c r="E58" s="17" t="s">
+      <c r="E58" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="F58" s="16" t="s">
+      <c r="F58" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G58" s="15"/>
-      <c r="H58" s="17" t="s">
+      <c r="G58" s="14"/>
+      <c r="H58" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="I58" s="16" t="s">
+      <c r="I58" s="15" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="59" spans="5:9" ht="22">
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="F59" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="G59" s="15"/>
-      <c r="H59" s="17" t="s">
+      <c r="G59" s="14"/>
+      <c r="H59" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="I59" s="16" t="s">
+      <c r="I59" s="15" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="60" spans="5:9" ht="22">
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="F60" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="G60" s="15"/>
-      <c r="H60" s="17" t="s">
+      <c r="G60" s="14"/>
+      <c r="H60" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="I60" s="16" t="s">
+      <c r="I60" s="15" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="61" spans="5:9" ht="22">
-      <c r="E61" s="17" t="s">
+      <c r="E61" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="F61" s="16" t="s">
+      <c r="F61" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="G61" s="15"/>
-      <c r="H61" s="17" t="s">
+      <c r="G61" s="14"/>
+      <c r="H61" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="I61" s="16" t="s">
+      <c r="I61" s="15" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5330,6 +5657,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5340,14 +5668,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5358,18 +5690,14 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5382,7 +5710,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -5391,7 +5719,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -5409,7 +5737,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -5418,7 +5746,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/etc.xlsx
+++ b/etc.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{53EBA11A-9399-FB44-9D9B-82AE4164CE12}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D155A498-7E3B-F54D-BB5D-5CC203E40A16}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="500" windowWidth="30940" windowHeight="16780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="500" windowWidth="32640" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="40" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="44" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="41" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="42" r:id="rId4"/>
-    <sheet name="vim" sheetId="43" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="45" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="41" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="42" r:id="rId5"/>
+    <sheet name="vim" sheetId="43" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -1204,9 +1205,6 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1221,6 +1219,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2808,6 +2809,386 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>444501</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>706477</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="https://gimg2.baidu.com/image_search/src=http%3A%2F%2Fimage.suning.cn%2Fuimg%2Fsop%2Fcommodity%2F154822083329649036558730_x.png&amp;refer=http%3A%2F%2Fimage.suning.cn&amp;app=2002&amp;size=f9999,10000&amp;q=a80&amp;n=0&amp;g=0n&amp;fmt=auto?sec=1668853361&amp;t=088c728da8457a3f5fac66c66341f1d1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEFEC173-2336-514B-A870-C8BADEE12547}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5397501" y="12700"/>
+          <a:ext cx="5214976" cy="3695700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>127079</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>706476</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{231941C0-FE35-AF40-BFFF-83078EDF56B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5080079" y="3657600"/>
+          <a:ext cx="5532397" cy="3784600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>55650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657C16A4-9FC2-9641-8D3A-781D51A4F60D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3675150"/>
+          <a:ext cx="5461000" cy="3767050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>508756</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="https://gimg2.baidu.com/image_search/src=http%3A%2F%2Fi0.hdslb.com%2Fbfs%2Farticle%2F7a5e424d23e69daf0d6aa22c41b2934d8ed32e23.jpg&amp;refer=http%3A%2F%2Fi0.hdslb.com&amp;app=2002&amp;size=f9999,10000&amp;q=a80&amp;n=0&amp;g=0n&amp;fmt=auto?sec=1668853031&amp;t=12f7f89ee6fc2eecbe8a7add5a7a9e74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C2AD414-C211-EA49-A3CE-D9612D9E2CA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5461756" cy="3670300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="组合 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB324B1-C197-C541-9A9C-25C14659F925}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="8255000"/>
+          <a:ext cx="9017000" cy="3187700"/>
+          <a:chOff x="0" y="8255000"/>
+          <a:chExt cx="9017000" cy="3187700"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="图片 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4C95C3F-E06B-B34B-ADE5-50A5B8A53FFC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="8255000"/>
+            <a:ext cx="9017000" cy="3187700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="右箭头 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970B7AC6-C0BE-1141-9036-70697446782A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3695700" y="9880600"/>
+            <a:ext cx="1231900" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="文本框 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B11FBD-952D-CF47-8085-123E2BA09360}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3784600" y="9588500"/>
+            <a:ext cx="1005403" cy="370230"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>去中心化</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -3607,49 +3988,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5321674-89F3-614C-91AB-0F0B05688BD9}">
   <dimension ref="F6:V15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="15"/>
   <sheetData>
     <row r="6" spans="6:22">
-      <c r="P6" s="23" t="s">
+      <c r="P6" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="R6" s="23" t="s">
+      <c r="R6" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="T6" s="23" t="s">
+      <c r="T6" s="22" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="6:22" ht="22" customHeight="1">
-      <c r="F8" s="20">
-        <v>0</v>
-      </c>
-      <c r="G8" s="20">
-        <v>0</v>
-      </c>
-      <c r="H8" s="20">
-        <v>0</v>
-      </c>
-      <c r="I8" s="20">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20">
-        <v>0</v>
-      </c>
-      <c r="K8" s="20">
-        <v>0</v>
-      </c>
-      <c r="L8" s="20">
-        <v>0</v>
-      </c>
-      <c r="M8" s="20">
-        <v>0</v>
-      </c>
-      <c r="P8" s="24">
+      <c r="F8" s="19">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0</v>
+      </c>
+      <c r="L8" s="19">
+        <v>0</v>
+      </c>
+      <c r="M8" s="19">
+        <v>0</v>
+      </c>
+      <c r="P8" s="23">
         <v>8</v>
       </c>
       <c r="R8">
@@ -3658,36 +4039,36 @@
       <c r="T8">
         <v>0</v>
       </c>
-      <c r="V8" s="23" t="s">
+      <c r="V8" s="22" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="9" spans="6:22" ht="22" customHeight="1">
-      <c r="F9" s="20">
-        <v>0</v>
-      </c>
-      <c r="G9" s="22">
+      <c r="F9" s="19">
+        <v>0</v>
+      </c>
+      <c r="G9" s="21">
         <v>1</v>
       </c>
-      <c r="H9" s="20">
-        <v>0</v>
-      </c>
-      <c r="I9" s="20">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20">
-        <v>0</v>
-      </c>
-      <c r="K9" s="20">
-        <v>0</v>
-      </c>
-      <c r="L9" s="20">
-        <v>0</v>
-      </c>
-      <c r="M9" s="20">
-        <v>0</v>
-      </c>
-      <c r="P9" s="24">
+      <c r="H9" s="19">
+        <v>0</v>
+      </c>
+      <c r="I9" s="19">
+        <v>0</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0</v>
+      </c>
+      <c r="L9" s="19">
+        <v>0</v>
+      </c>
+      <c r="M9" s="19">
+        <v>0</v>
+      </c>
+      <c r="P9" s="23">
         <v>1</v>
       </c>
       <c r="R9">
@@ -3698,31 +4079,31 @@
       </c>
     </row>
     <row r="10" spans="6:22" ht="22" customHeight="1">
-      <c r="F10" s="20">
-        <v>0</v>
-      </c>
-      <c r="G10" s="20">
-        <v>0</v>
-      </c>
-      <c r="H10" s="21">
+      <c r="F10" s="19">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
         <v>2</v>
       </c>
-      <c r="I10" s="20">
-        <v>0</v>
-      </c>
-      <c r="J10" s="20">
-        <v>0</v>
-      </c>
-      <c r="K10" s="20">
-        <v>0</v>
-      </c>
-      <c r="L10" s="20">
-        <v>0</v>
-      </c>
-      <c r="M10" s="20">
-        <v>0</v>
-      </c>
-      <c r="P10" s="24">
+      <c r="I10" s="19">
+        <v>0</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0</v>
+      </c>
+      <c r="L10" s="19">
+        <v>0</v>
+      </c>
+      <c r="M10" s="19">
+        <v>0</v>
+      </c>
+      <c r="P10" s="23">
         <v>2</v>
       </c>
       <c r="R10">
@@ -3733,31 +4114,31 @@
       </c>
     </row>
     <row r="11" spans="6:22" ht="22" customHeight="1">
-      <c r="F11" s="20">
-        <v>0</v>
-      </c>
-      <c r="G11" s="20">
-        <v>0</v>
-      </c>
-      <c r="H11" s="20">
-        <v>0</v>
-      </c>
-      <c r="I11" s="22">
+      <c r="F11" s="19">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0</v>
+      </c>
+      <c r="I11" s="21">
         <v>1</v>
       </c>
-      <c r="J11" s="20">
-        <v>0</v>
-      </c>
-      <c r="K11" s="20">
-        <v>0</v>
-      </c>
-      <c r="L11" s="20">
-        <v>0</v>
-      </c>
-      <c r="M11" s="20">
-        <v>0</v>
-      </c>
-      <c r="P11" s="24">
+      <c r="J11" s="19">
+        <v>0</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0</v>
+      </c>
+      <c r="L11" s="19">
+        <v>0</v>
+      </c>
+      <c r="M11" s="19">
+        <v>0</v>
+      </c>
+      <c r="P11" s="23">
         <v>3</v>
       </c>
       <c r="R11">
@@ -3768,31 +4149,31 @@
       </c>
     </row>
     <row r="12" spans="6:22" ht="22" customHeight="1">
-      <c r="F12" s="20">
-        <v>0</v>
-      </c>
-      <c r="G12" s="20">
-        <v>0</v>
-      </c>
-      <c r="H12" s="20">
-        <v>0</v>
-      </c>
-      <c r="I12" s="20">
-        <v>0</v>
-      </c>
-      <c r="J12" s="21">
+      <c r="F12" s="19">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0</v>
+      </c>
+      <c r="J12" s="20">
         <v>2</v>
       </c>
-      <c r="K12" s="20">
-        <v>0</v>
-      </c>
-      <c r="L12" s="20">
-        <v>0</v>
-      </c>
-      <c r="M12" s="20">
-        <v>0</v>
-      </c>
-      <c r="P12" s="24">
+      <c r="K12" s="19">
+        <v>0</v>
+      </c>
+      <c r="L12" s="19">
+        <v>0</v>
+      </c>
+      <c r="M12" s="19">
+        <v>0</v>
+      </c>
+      <c r="P12" s="23">
         <v>4</v>
       </c>
       <c r="R12">
@@ -3803,80 +4184,80 @@
       </c>
     </row>
     <row r="13" spans="6:22" ht="22" customHeight="1">
-      <c r="F13" s="20">
-        <v>0</v>
-      </c>
-      <c r="G13" s="20">
-        <v>0</v>
-      </c>
-      <c r="H13" s="20">
-        <v>0</v>
-      </c>
-      <c r="I13" s="20">
-        <v>0</v>
-      </c>
-      <c r="J13" s="20">
-        <v>0</v>
-      </c>
-      <c r="K13" s="20">
-        <v>0</v>
-      </c>
-      <c r="L13" s="20">
-        <v>0</v>
-      </c>
-      <c r="M13" s="20">
+      <c r="F13" s="19">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0</v>
+      </c>
+      <c r="I13" s="19">
+        <v>0</v>
+      </c>
+      <c r="J13" s="19">
+        <v>0</v>
+      </c>
+      <c r="K13" s="19">
+        <v>0</v>
+      </c>
+      <c r="L13" s="19">
+        <v>0</v>
+      </c>
+      <c r="M13" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="6:22" ht="22" customHeight="1">
-      <c r="F14" s="20">
-        <v>0</v>
-      </c>
-      <c r="G14" s="20">
-        <v>0</v>
-      </c>
-      <c r="H14" s="20">
-        <v>0</v>
-      </c>
-      <c r="I14" s="20">
-        <v>0</v>
-      </c>
-      <c r="J14" s="20">
-        <v>0</v>
-      </c>
-      <c r="K14" s="20">
-        <v>0</v>
-      </c>
-      <c r="L14" s="20">
-        <v>0</v>
-      </c>
-      <c r="M14" s="20">
+      <c r="F14" s="19">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19">
+        <v>0</v>
+      </c>
+      <c r="J14" s="19">
+        <v>0</v>
+      </c>
+      <c r="K14" s="19">
+        <v>0</v>
+      </c>
+      <c r="L14" s="19">
+        <v>0</v>
+      </c>
+      <c r="M14" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="6:22" ht="22" customHeight="1">
-      <c r="F15" s="20">
-        <v>0</v>
-      </c>
-      <c r="G15" s="20">
-        <v>0</v>
-      </c>
-      <c r="H15" s="20">
-        <v>0</v>
-      </c>
-      <c r="I15" s="20">
-        <v>0</v>
-      </c>
-      <c r="J15" s="20">
-        <v>0</v>
-      </c>
-      <c r="K15" s="20">
-        <v>0</v>
-      </c>
-      <c r="L15" s="20">
-        <v>0</v>
-      </c>
-      <c r="M15" s="20">
+      <c r="F15" s="19">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19">
+        <v>0</v>
+      </c>
+      <c r="I15" s="19">
+        <v>0</v>
+      </c>
+      <c r="J15" s="19">
+        <v>0</v>
+      </c>
+      <c r="K15" s="19">
+        <v>0</v>
+      </c>
+      <c r="L15" s="19">
+        <v>0</v>
+      </c>
+      <c r="M15" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3887,6 +4268,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C5041C-6D90-6B49-8E09-0B763D7D2A57}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE40C53E-8169-40FE-8210-70A41C856B1B}">
   <dimension ref="B5:S62"/>
   <sheetViews>
@@ -5032,7 +5429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A153533-EC68-D34D-812B-7AD542C4A64B}">
   <dimension ref="C9:G13"/>
   <sheetViews>
@@ -5136,7 +5533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98FAA08-5897-AE4A-91D0-71038AC59959}">
   <dimension ref="B3:I61"/>
   <sheetViews>
@@ -5210,24 +5607,24 @@
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="24"/>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="24"/>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
@@ -5262,7 +5659,7 @@
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="24" t="s">
         <v>61</v>
       </c>
       <c r="C18" t="s">
@@ -5270,55 +5667,55 @@
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="19"/>
+      <c r="B19" s="24"/>
       <c r="C19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="19"/>
+      <c r="B20" s="24"/>
       <c r="C20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="19"/>
+      <c r="B21" s="24"/>
       <c r="C21" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="19"/>
+      <c r="B22" s="24"/>
       <c r="C22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="19"/>
+      <c r="B23" s="24"/>
       <c r="C23" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="19"/>
+      <c r="B24" s="24"/>
       <c r="C24" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="19"/>
+      <c r="B25" s="24"/>
       <c r="C25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="19"/>
+      <c r="B26" s="24"/>
       <c r="C26" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="24" t="s">
         <v>71</v>
       </c>
       <c r="C27" t="s">
@@ -5326,43 +5723,43 @@
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="19"/>
+      <c r="B28" s="24"/>
       <c r="C28" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="19"/>
+      <c r="B29" s="24"/>
       <c r="C29" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="19"/>
+      <c r="B30" s="24"/>
       <c r="C30" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="19"/>
+      <c r="B31" s="24"/>
       <c r="C31" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="19"/>
+      <c r="B32" s="24"/>
       <c r="C32" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="19"/>
+      <c r="B33" s="24"/>
       <c r="C33" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="19"/>
+      <c r="B34" s="24"/>
       <c r="C34" t="s">
         <v>79</v>
       </c>
@@ -5392,7 +5789,7 @@
       </c>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="24" t="s">
         <v>86</v>
       </c>
       <c r="C38" t="s">
@@ -5400,13 +5797,13 @@
       </c>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="19"/>
+      <c r="B39" s="24"/>
       <c r="C39" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="19"/>
+      <c r="B40" s="24"/>
       <c r="C40" t="s">
         <v>89</v>
       </c>
@@ -5662,9 +6059,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5676,17 +6074,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5697,11 +6091,14 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -5719,7 +6116,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -5728,7 +6125,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -5746,7 +6143,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/etc.xlsx
+++ b/etc.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D155A498-7E3B-F54D-BB5D-5CC203E40A16}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2176EE1C-C595-FE47-876E-9259CC1CCDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="500" windowWidth="32640" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="500" windowWidth="32640" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="40" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="44" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="45" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="41" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="42" r:id="rId5"/>
-    <sheet name="vim" sheetId="43" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="46" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="44" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="45" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="41" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="42" r:id="rId6"/>
+    <sheet name="vim" sheetId="43" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -1147,7 +1148,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1165,12 +1166,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1202,7 +1197,7 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1216,9 +1211,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -2809,6 +2801,2124 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{220D5D42-D717-2B11-92D8-656496308D13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="1130300"/>
+          <a:ext cx="1574800" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 11026"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A47F3938-CE15-274D-8A50-20ED324AE998}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="1130300"/>
+          <a:ext cx="1574800" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 11026"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67ACEC16-27BC-2B4B-BE91-F88FE737F919}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="2590800"/>
+          <a:ext cx="1574800" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 11026"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>用户</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直线箭头连接符 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DB894D7-D78A-D618-980B-D1BFB6D8BA38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2755900" y="1460500"/>
+          <a:ext cx="1016000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直线箭头连接符 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63902F9A-1E79-1E4C-82CD-79B0199FD247}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="0"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1968500" y="1790700"/>
+          <a:ext cx="0" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="圆角矩形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F05D693B-065E-1B4D-B993-2EFA6B2A58E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9436100" y="1714500"/>
+          <a:ext cx="1574800" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 11026"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="圆角矩形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2148FF79-0160-8745-9D77-3C5E224D89AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12026900" y="1130300"/>
+          <a:ext cx="2578100" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 11026"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>（资源服务器）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="圆角矩形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A1B136D-E9B9-CD47-BB22-4E12BD3FDF99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9436100" y="3175000"/>
+          <a:ext cx="1574800" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 11026"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>用户</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直线箭头连接符 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB26DEBA-7EDA-674C-88B1-94FBCF17D5E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11010900" y="1460500"/>
+          <a:ext cx="1016000" cy="584200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直线箭头连接符 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7951755A-DA15-0945-8765-E4E811C448FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="0"/>
+          <a:endCxn id="15" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10223500" y="2374900"/>
+          <a:ext cx="0" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="圆角矩形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2239F0E-FAA2-2242-AA8C-393CF512F8E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11988800" y="2387600"/>
+          <a:ext cx="2578100" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 11026"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>（鉴权服务器）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直线箭头连接符 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F1E291C-81F1-DA4B-9664-BB685240AC3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="1"/>
+          <a:endCxn id="15" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11010900" y="2044700"/>
+          <a:ext cx="977900" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直线箭头连接符 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C1D0D8-373D-CA45-846B-21B1D0240085}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11010900" y="2717800"/>
+          <a:ext cx="977900" cy="787400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1330492" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="文本框 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3220E1E-4311-E28A-CDE0-C41F46345F21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11112500" y="3149600"/>
+          <a:ext cx="1330492" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>告诉</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>我要授权给</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466794" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="文本框 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B9933E-18F1-9A45-B5B5-3EEC485D175D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11341100" y="2286000"/>
+          <a:ext cx="466794" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>授权</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="右箭头 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0475340-09F7-FDCF-7CA9-3A8A2C8CE3A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5727700" y="2476500"/>
+          <a:ext cx="1282700" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="圆角矩形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47F05253-0FDA-1B42-99F0-1312197A977F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1130300" y="8432800"/>
+          <a:ext cx="1866900" cy="2552700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4904"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="圆角矩形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C51A4D60-3977-D543-AABE-CF2714B3B030}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1130300" y="6794500"/>
+          <a:ext cx="1866900" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 11026"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>用户</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="圆角矩形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F30A27A-0828-5448-9C49-02F19FBB995D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7416800" y="8432800"/>
+          <a:ext cx="2133600" cy="2552700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3066"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（鉴权服务器）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直线箭头连接符 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5CC55EE-264A-924B-89AE-44EEFB3B72C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="2"/>
+          <a:endCxn id="34" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2063750" y="7454900"/>
+          <a:ext cx="0" cy="977900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1183594" cy="335541"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="文本框 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B82034D2-E2A0-3643-BDD8-BC5C402A0708}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1498600" y="7772400"/>
+          <a:ext cx="1183594" cy="335541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>用户访问</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直线箭头连接符 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CCD3760-9238-9042-A149-8BC282012E44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2997200" y="8801100"/>
+          <a:ext cx="4432300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1819857" cy="335541"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="文本框 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C319D9-9CC0-3E42-B7C8-A252988647D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="8432800"/>
+          <a:ext cx="1819857" cy="335541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>2. A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>打开</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>的授权页面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="肘形连接符 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59EDEC76-6D94-7AB4-26CC-0E053F077E41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="3"/>
+          <a:endCxn id="37" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2997200" y="7124700"/>
+          <a:ext cx="5486400" cy="1308100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2695546" cy="335541"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="文本框 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF4B2CB-2A35-CC4D-B3EA-1D97F7E18CDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3556000" y="6743700"/>
+          <a:ext cx="2695546" cy="335541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t> 用户输入账号密码，进行授权</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直线箭头连接符 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E82910-CA39-FE42-BB7D-2DC0E7DD6E73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="1"/>
+          <a:endCxn id="34" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2997200" y="9709150"/>
+          <a:ext cx="4419600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3883755" cy="335541"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="文本框 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB3E297F-913D-DB44-888A-CABE5FDEAD0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="9334500"/>
+          <a:ext cx="3883755" cy="335541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>4.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>授权后跳转到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>URL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>，附带</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>authorization</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>code</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3658887" cy="335541"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="文本框 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A2C5E44-EEC2-3E4A-8638-76A5F9EA6654}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3327400" y="10248900"/>
+          <a:ext cx="3658887" cy="335541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>5. A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>code</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>，调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>的接口获取</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>Access</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>Token</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直线箭头连接符 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61B2E955-0F9A-E245-BBE1-83B6B955B756}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2997200" y="10680700"/>
+          <a:ext cx="4432300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="圆角矩形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2423B4FF-B7FB-9A4C-99B2-1AFA378DA3CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7416800" y="11468100"/>
+          <a:ext cx="2133600" cy="635000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3066"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（资源服务器）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="肘形连接符 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14E9B1C9-53D6-8946-A9E2-E649332BF224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="2"/>
+          <a:endCxn id="67" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4340225" y="8709025"/>
+          <a:ext cx="800100" cy="5353050"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2833917" cy="335541"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="文本框 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A57AF37-FD9B-054A-BB08-9B1F973EA2AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3530600" y="11366500"/>
+          <a:ext cx="2833917" cy="335541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>6. A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>携带</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>Access</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>Token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t> 访问</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>的资源</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -3187,7 +5297,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3973,7 +6083,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AV27" sqref="AV27"/>
+      <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="15"/>
@@ -3985,6 +6095,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A157604F-C010-A748-98EA-DFA9CDA583FF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="AR50" sqref="AR50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5321674-89F3-614C-91AB-0F0B05688BD9}">
   <dimension ref="F6:V15"/>
   <sheetViews>
@@ -3995,42 +6121,42 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="15"/>
   <sheetData>
     <row r="6" spans="6:22">
-      <c r="P6" s="22" t="s">
+      <c r="P6" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="R6" s="22" t="s">
+      <c r="R6" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="T6" s="22" t="s">
+      <c r="T6" s="20" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="6:22" ht="22" customHeight="1">
-      <c r="F8" s="19">
+      <c r="F8" s="17">
         <v>0</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="17">
         <v>0</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="17">
         <v>0</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="17">
         <v>0</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="17">
         <v>0</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="17">
         <v>0</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="17">
         <v>0</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="17">
         <v>0</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="8">
         <v>8</v>
       </c>
       <c r="R8">
@@ -4039,36 +6165,36 @@
       <c r="T8">
         <v>0</v>
       </c>
-      <c r="V8" s="22" t="s">
+      <c r="V8" s="20" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="9" spans="6:22" ht="22" customHeight="1">
-      <c r="F9" s="19">
+      <c r="F9" s="17">
         <v>0</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="19">
         <v>1</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <v>0</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="17">
         <v>0</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="17">
         <v>0</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="17">
         <v>0</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="17">
         <v>0</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="17">
         <v>0</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="8">
         <v>1</v>
       </c>
       <c r="R9">
@@ -4079,31 +6205,31 @@
       </c>
     </row>
     <row r="10" spans="6:22" ht="22" customHeight="1">
-      <c r="F10" s="19">
+      <c r="F10" s="17">
         <v>0</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="17">
         <v>0</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="18">
         <v>2</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="17">
         <v>0</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="17">
         <v>0</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="17">
         <v>0</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="17">
         <v>0</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="17">
         <v>0</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="8">
         <v>2</v>
       </c>
       <c r="R10">
@@ -4114,31 +6240,31 @@
       </c>
     </row>
     <row r="11" spans="6:22" ht="22" customHeight="1">
-      <c r="F11" s="19">
+      <c r="F11" s="17">
         <v>0</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="17">
         <v>0</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="17">
         <v>0</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="19">
         <v>1</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="17">
         <v>0</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="17">
         <v>0</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="17">
         <v>0</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="17">
         <v>0</v>
       </c>
-      <c r="P11" s="23">
+      <c r="P11" s="8">
         <v>3</v>
       </c>
       <c r="R11">
@@ -4149,31 +6275,31 @@
       </c>
     </row>
     <row r="12" spans="6:22" ht="22" customHeight="1">
-      <c r="F12" s="19">
+      <c r="F12" s="17">
         <v>0</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="17">
         <v>0</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="17">
         <v>0</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="17">
         <v>0</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="18">
         <v>2</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="17">
         <v>0</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="17">
         <v>0</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="17">
         <v>0</v>
       </c>
-      <c r="P12" s="23">
+      <c r="P12" s="8">
         <v>4</v>
       </c>
       <c r="R12">
@@ -4184,80 +6310,80 @@
       </c>
     </row>
     <row r="13" spans="6:22" ht="22" customHeight="1">
-      <c r="F13" s="19">
+      <c r="F13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="17">
         <v>0</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <v>0</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="17">
         <v>0</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="17">
         <v>0</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="17">
         <v>0</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="17">
         <v>0</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="6:22" ht="22" customHeight="1">
-      <c r="F14" s="19">
+      <c r="F14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="17">
         <v>0</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="17">
         <v>0</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="17">
         <v>0</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="17">
         <v>0</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="17">
         <v>0</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="17">
         <v>0</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="6:22" ht="22" customHeight="1">
-      <c r="F15" s="19">
+      <c r="F15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="17">
         <v>0</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="17">
         <v>0</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="17">
         <v>0</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="17">
         <v>0</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="17">
         <v>0</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="17">
         <v>0</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="17">
         <v>0</v>
       </c>
     </row>
@@ -4267,11 +6393,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C5041C-6D90-6B49-8E09-0B763D7D2A57}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
@@ -4283,11 +6409,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE40C53E-8169-40FE-8210-70A41C856B1B}">
   <dimension ref="B5:S62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="AA50" sqref="AA50"/>
     </sheetView>
   </sheetViews>
@@ -4367,7 +6493,6 @@
       <c r="I7" s="3">
         <v>90</v>
       </c>
-      <c r="J7" s="7"/>
       <c r="L7" s="2" t="s">
         <v>5</v>
       </c>
@@ -4409,7 +6534,6 @@
       <c r="I8" s="3">
         <v>88</v>
       </c>
-      <c r="J8" s="7"/>
       <c r="L8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4451,7 +6575,6 @@
       <c r="I9" s="3">
         <v>99</v>
       </c>
-      <c r="J9" s="7"/>
       <c r="L9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4490,7 +6613,6 @@
       <c r="I10" s="3">
         <v>85</v>
       </c>
-      <c r="J10" s="7"/>
       <c r="L10" s="2" t="s">
         <v>10</v>
       </c>
@@ -4517,7 +6639,6 @@
       <c r="I11" s="3">
         <v>70</v>
       </c>
-      <c r="J11" s="7"/>
       <c r="L11" s="2" t="s">
         <v>6</v>
       </c>
@@ -4544,7 +6665,6 @@
       <c r="I12" s="3">
         <v>66</v>
       </c>
-      <c r="J12" s="7"/>
       <c r="L12" s="2" t="s">
         <v>10</v>
       </c>
@@ -4571,7 +6691,7 @@
       <c r="I13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="6"/>
+      <c r="J13" s="1"/>
       <c r="L13" s="2" t="s">
         <v>11</v>
       </c>
@@ -4659,7 +6779,6 @@
       <c r="I25" s="3">
         <v>90</v>
       </c>
-      <c r="J25" s="7"/>
       <c r="L25" s="2" t="s">
         <v>5</v>
       </c>
@@ -4701,7 +6820,6 @@
       <c r="I26" s="3">
         <v>88</v>
       </c>
-      <c r="J26" s="7"/>
       <c r="L26" s="2" t="s">
         <v>5</v>
       </c>
@@ -4743,7 +6861,6 @@
       <c r="I27" s="3">
         <v>99</v>
       </c>
-      <c r="J27" s="7"/>
       <c r="L27" s="2" t="s">
         <v>6</v>
       </c>
@@ -4782,7 +6899,6 @@
       <c r="I28" s="3">
         <v>70</v>
       </c>
-      <c r="J28" s="7"/>
       <c r="L28" s="2" t="s">
         <v>10</v>
       </c>
@@ -4792,10 +6908,10 @@
       <c r="N28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O28" s="8" t="s">
+      <c r="O28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="9" t="s">
+      <c r="P28" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4809,7 +6925,6 @@
       <c r="I29" s="3">
         <v>66</v>
       </c>
-      <c r="J29" s="7"/>
       <c r="L29" s="2" t="s">
         <v>6</v>
       </c>
@@ -4836,7 +6951,6 @@
       <c r="I30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J30" s="7"/>
       <c r="L30" s="2" t="s">
         <v>10</v>
       </c>
@@ -4854,7 +6968,7 @@
       </c>
     </row>
     <row r="31" spans="2:19">
-      <c r="J31" s="6"/>
+      <c r="J31" s="1"/>
       <c r="L31" s="2" t="s">
         <v>11</v>
       </c>
@@ -4942,7 +7056,6 @@
       <c r="I41" s="3">
         <v>90</v>
       </c>
-      <c r="J41" s="7"/>
       <c r="L41" s="2" t="s">
         <v>5</v>
       </c>
@@ -4984,7 +7097,6 @@
       <c r="I42" s="3">
         <v>88</v>
       </c>
-      <c r="J42" s="7"/>
       <c r="L42" s="2" t="s">
         <v>5</v>
       </c>
@@ -5026,14 +7138,13 @@
       <c r="I43" s="3">
         <v>99</v>
       </c>
-      <c r="J43" s="7"/>
-      <c r="L43" s="8" t="s">
+      <c r="L43" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M43" s="8" t="s">
+      <c r="M43" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N43" s="8" t="s">
+      <c r="N43" s="6" t="s">
         <v>23</v>
       </c>
       <c r="O43" s="2" t="s">
@@ -5053,7 +7164,6 @@
       <c r="I44" s="3">
         <v>85</v>
       </c>
-      <c r="J44" s="7"/>
       <c r="L44" s="2" t="s">
         <v>10</v>
       </c>
@@ -5080,14 +7190,13 @@
       <c r="I45" s="3">
         <v>70</v>
       </c>
-      <c r="J45" s="7"/>
-      <c r="L45" s="8" t="s">
+      <c r="L45" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M45" s="8" t="s">
+      <c r="M45" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N45" s="8" t="s">
+      <c r="N45" s="6" t="s">
         <v>23</v>
       </c>
       <c r="O45" s="2" t="s">
@@ -5107,7 +7216,6 @@
       <c r="I46" s="3">
         <v>66</v>
       </c>
-      <c r="J46" s="7"/>
       <c r="L46" s="2" t="s">
         <v>10</v>
       </c>
@@ -5134,7 +7242,7 @@
       <c r="I47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J47" s="6"/>
+      <c r="J47" s="1"/>
       <c r="L47" s="2" t="s">
         <v>11</v>
       </c>
@@ -5222,7 +7330,6 @@
       <c r="I56" s="3">
         <v>90</v>
       </c>
-      <c r="J56" s="7"/>
       <c r="L56" s="2" t="s">
         <v>5</v>
       </c>
@@ -5264,7 +7371,6 @@
       <c r="I57" s="3">
         <v>88</v>
       </c>
-      <c r="J57" s="7"/>
       <c r="L57" s="2" t="s">
         <v>5</v>
       </c>
@@ -5306,7 +7412,6 @@
       <c r="I58" s="3">
         <v>85</v>
       </c>
-      <c r="J58" s="7"/>
       <c r="L58" s="2" t="s">
         <v>6</v>
       </c>
@@ -5316,10 +7421,10 @@
       <c r="N58" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O58" s="8" t="s">
+      <c r="O58" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P58" s="9" t="s">
+      <c r="P58" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5333,14 +7438,13 @@
       <c r="I59" s="3">
         <v>70</v>
       </c>
-      <c r="J59" s="7"/>
-      <c r="L59" s="8" t="s">
+      <c r="L59" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M59" s="8" t="s">
+      <c r="M59" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N59" s="8" t="s">
+      <c r="N59" s="6" t="s">
         <v>23</v>
       </c>
       <c r="O59" s="2" t="s">
@@ -5360,7 +7464,6 @@
       <c r="I60" s="3">
         <v>66</v>
       </c>
-      <c r="J60" s="7"/>
       <c r="L60" s="2" t="s">
         <v>6</v>
       </c>
@@ -5387,14 +7490,13 @@
       <c r="I61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J61" s="7"/>
-      <c r="L61" s="8" t="s">
+      <c r="L61" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M61" s="8" t="s">
+      <c r="M61" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N61" s="8" t="s">
+      <c r="N61" s="6" t="s">
         <v>23</v>
       </c>
       <c r="O61" s="2" t="s">
@@ -5405,7 +7507,7 @@
       </c>
     </row>
     <row r="62" spans="2:19">
-      <c r="J62" s="6"/>
+      <c r="J62" s="1"/>
       <c r="L62" s="2" t="s">
         <v>11</v>
       </c>
@@ -5429,7 +7531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A153533-EC68-D34D-812B-7AD542C4A64B}">
   <dimension ref="C9:G13"/>
   <sheetViews>
@@ -5443,87 +7545,87 @@
   </cols>
   <sheetData>
     <row r="9" spans="3:7">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="3:7">
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="3:7">
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5533,7 +7635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98FAA08-5897-AE4A-91D0-71038AC59959}">
   <dimension ref="B3:I61"/>
   <sheetViews>
@@ -5567,7 +7669,7 @@
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>0</v>
       </c>
       <c r="C5" t="s">
@@ -5607,24 +7709,24 @@
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="24"/>
+      <c r="C10" s="21"/>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="21"/>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
@@ -5659,7 +7761,7 @@
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C18" t="s">
@@ -5667,55 +7769,55 @@
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="24"/>
+      <c r="B19" s="21"/>
       <c r="C19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="24"/>
+      <c r="B20" s="21"/>
       <c r="C20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="24"/>
+      <c r="B21" s="21"/>
       <c r="C21" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="24"/>
+      <c r="B22" s="21"/>
       <c r="C22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="24"/>
+      <c r="B23" s="21"/>
       <c r="C23" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="24"/>
+      <c r="B24" s="21"/>
       <c r="C24" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="24"/>
+      <c r="B25" s="21"/>
       <c r="C25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="24"/>
+      <c r="B26" s="21"/>
       <c r="C26" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="21" t="s">
         <v>71</v>
       </c>
       <c r="C27" t="s">
@@ -5723,43 +7825,43 @@
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="24"/>
+      <c r="B28" s="21"/>
       <c r="C28" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="24"/>
+      <c r="B29" s="21"/>
       <c r="C29" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="24"/>
+      <c r="B30" s="21"/>
       <c r="C30" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="24"/>
+      <c r="B31" s="21"/>
       <c r="C31" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="24"/>
+      <c r="B32" s="21"/>
       <c r="C32" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="24"/>
+      <c r="B33" s="21"/>
       <c r="C33" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="24"/>
+      <c r="B34" s="21"/>
       <c r="C34" t="s">
         <v>79</v>
       </c>
@@ -5789,7 +7891,7 @@
       </c>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="21" t="s">
         <v>86</v>
       </c>
       <c r="C38" t="s">
@@ -5797,248 +7899,248 @@
       </c>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="24"/>
+      <c r="B39" s="21"/>
       <c r="C39" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="24"/>
+      <c r="B40" s="21"/>
       <c r="C40" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="45" spans="2:9">
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="2:9" ht="22">
-      <c r="E46" s="17" t="s">
+      <c r="E46" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="17" t="s">
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="I46" s="14"/>
+      <c r="I46" s="12"/>
     </row>
     <row r="47" spans="2:9" ht="22">
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G47" s="14"/>
-      <c r="H47" s="15" t="s">
+      <c r="G47" s="12"/>
+      <c r="H47" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="I47" s="15" t="s">
+      <c r="I47" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="22">
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="G48" s="14"/>
-      <c r="H48" s="16" t="s">
+      <c r="G48" s="12"/>
+      <c r="H48" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="I48" s="15" t="s">
+      <c r="I48" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="49" spans="5:9" ht="22">
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F49" s="15" t="s">
+      <c r="F49" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G49" s="14"/>
-      <c r="H49" s="16" t="s">
+      <c r="G49" s="12"/>
+      <c r="H49" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I49" s="15" t="s">
+      <c r="I49" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="50" spans="5:9" ht="22">
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G50" s="14"/>
-      <c r="H50" s="16" t="s">
+      <c r="G50" s="12"/>
+      <c r="H50" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="I50" s="15" t="s">
+      <c r="I50" s="13" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="51" spans="5:9" ht="22">
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="G51" s="14"/>
-      <c r="H51" s="16" t="s">
+      <c r="G51" s="12"/>
+      <c r="H51" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="I51" s="15" t="s">
+      <c r="I51" s="13" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="52" spans="5:9" ht="22">
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
     </row>
     <row r="53" spans="5:9" ht="22">
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="G53" s="14"/>
-      <c r="H53" s="18" t="s">
+      <c r="G53" s="12"/>
+      <c r="H53" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="I53" s="14"/>
+      <c r="I53" s="12"/>
     </row>
     <row r="54" spans="5:9" ht="22">
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="G54" s="14"/>
-      <c r="H54" s="16" t="s">
+      <c r="G54" s="12"/>
+      <c r="H54" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="I54" s="15" t="s">
+      <c r="I54" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="55" spans="5:9" ht="22">
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F55" s="15" t="s">
+      <c r="F55" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G55" s="14"/>
-      <c r="H55" s="16" t="s">
+      <c r="G55" s="12"/>
+      <c r="H55" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I55" s="15" t="s">
+      <c r="I55" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="56" spans="5:9" ht="22">
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F56" s="15" t="s">
+      <c r="F56" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="G56" s="14"/>
-      <c r="H56" s="16" t="s">
+      <c r="G56" s="12"/>
+      <c r="H56" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="I56" s="15" t="s">
+      <c r="I56" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="57" spans="5:9" ht="22">
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="G57" s="14"/>
-      <c r="H57" s="16" t="s">
+      <c r="G57" s="12"/>
+      <c r="H57" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="I57" s="15" t="s">
+      <c r="I57" s="13" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="58" spans="5:9" ht="22">
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F58" s="15" t="s">
+      <c r="F58" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G58" s="14"/>
-      <c r="H58" s="16" t="s">
+      <c r="G58" s="12"/>
+      <c r="H58" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="I58" s="15" t="s">
+      <c r="I58" s="13" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="59" spans="5:9" ht="22">
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F59" s="15" t="s">
+      <c r="F59" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="G59" s="14"/>
-      <c r="H59" s="16" t="s">
+      <c r="G59" s="12"/>
+      <c r="H59" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="I59" s="15" t="s">
+      <c r="I59" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="60" spans="5:9" ht="22">
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="F60" s="15" t="s">
+      <c r="F60" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="G60" s="14"/>
-      <c r="H60" s="16" t="s">
+      <c r="G60" s="12"/>
+      <c r="H60" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="I60" s="15" t="s">
+      <c r="I60" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="61" spans="5:9" ht="22">
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F61" s="15" t="s">
+      <c r="F61" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G61" s="14"/>
-      <c r="H61" s="16" t="s">
+      <c r="G61" s="12"/>
+      <c r="H61" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="I61" s="15" t="s">
+      <c r="I61" s="13" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6059,13 +8161,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -6073,31 +8168,56 @@
 </settings>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
 </sheetInterline>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -6106,8 +8226,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -6115,16 +8235,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -6133,17 +8244,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
